--- a/xlsx/美国经济_intext.xlsx
+++ b/xlsx/美国经济_intext.xlsx
@@ -15,1029 +15,1017 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
   <si>
     <t>美国经济</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>纽约</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>世界贸易组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>经济合作与发展组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>亚洲太平洋经济合作组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
+  </si>
+  <si>
+    <t>国内生产总值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
+  </si>
+  <si>
+    <t>各国人均国内生产总值列表 (购买力平价)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>工业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E4%BA%A7%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>第三产业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
+  </si>
+  <si>
+    <t>通货膨胀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85%E7%89%A9%E5%83%B9%E6%8C%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>消费者物价指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E7%AA%AE%E9%96%80%E6%AA%BB</t>
+  </si>
+  <si>
+    <t>贫穷门槛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B0%BC%E7%B3%BB%E6%95%B0</t>
+  </si>
+  <si>
+    <t>基尼系数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%94%B6%E5%85%A5%E5%9D%87%E8%A1%A1%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国收入均衡列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>林业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%94%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>渔业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E9%80%A0%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>制造业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E5%B7%A5%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>手工业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD%E7%8E%87</t>
+  </si>
+  <si>
+    <t>失业率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
+  </si>
+  <si>
+    <t>石油</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B1%9E</t>
+  </si>
+  <si>
+    <t>金属</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E5%99%A8</t>
+  </si>
+  <si>
+    <t>航天器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9</t>
+  </si>
+  <si>
+    <t>食物</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E6%9D%90</t>
+  </si>
+  <si>
+    <t>木材</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%BF%E7%9F%B3</t>
+  </si>
+  <si>
+    <t>矿石</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%BB%8F%E5%95%86%E5%AE%B9%E6%98%93%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国经商容易度列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E8%B2%A1</t>
+  </si>
+  <si>
+    <t>资本财</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A5%B2%E6%96%99</t>
+  </si>
+  <si>
+    <t>饲料</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A5%AE%E6%96%99</t>
+  </si>
+  <si>
+    <t>饮料</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%8C%96</t>
+  </si>
+  <si>
+    <t>石化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9E%E6%9C%BA</t>
+  </si>
+  <si>
+    <t>飞机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA</t>
+  </si>
+  <si>
+    <t>计算机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%99%A9</t>
+  </si>
+  <si>
+    <t>社会保险</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E7%96%97%E4%BF%9D%E9%99%A9</t>
+  </si>
+  <si>
+    <t>医疗保险</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E5%BC%80%E5%8F%91%E6%8F%B4%E5%8A%A9</t>
+  </si>
+  <si>
+    <t>政府开发援助</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E5%87%86%E6%99%AE%E5%B0%94</t>
+  </si>
+  <si>
+    <t>标准普尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E8%BF%AA</t>
+  </si>
+  <si>
+    <t>穆迪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E8%AA%89%E5%9B%BD%E9%99%85</t>
+  </si>
+  <si>
+    <t>惠誉国际</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Infobox_economy</t>
+  </si>
+  <si>
+    <t>Template talk-Infobox economy</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>经济体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/GDP</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>世界经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>混合经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>微观经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A7%84</t>
+  </si>
+  <si>
+    <t>行政法规</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E7%A8%8E%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>财税政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>货币政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%82%E8%B0%83%E6%8E%A7</t>
+  </si>
+  <si>
+    <t>宏观调控</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%8D%AB%E7%94%9F</t>
+  </si>
+  <si>
+    <t>公共卫生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AE%89%E5%85%A8%E4%BF%9D%E9%9A%9C</t>
+  </si>
+  <si>
+    <t>社会安全保障</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%AD%98%E6%AC%BE%E4%BF%9D%E9%99%A9%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>美国联邦存款保险公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%9C%E6%BB%AF%E6%80%A7%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
+  </si>
+  <si>
+    <t>停滞性通货膨胀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2007%E5%B9%B4%EF%BC%8D2011%E5%B9%B4%E7%92%B0%E7%90%83%E9%87%91%E8%9E%8D%E5%8D%B1%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>2007年－2011年环球金融危机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%A8%E5%87%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>净出口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E5%AD%97</t>
+  </si>
+  <si>
+    <t>赤字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%80%BA</t>
+  </si>
+  <si>
+    <t>美国国债</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%B0%84</t>
+  </si>
+  <si>
+    <t>雷射</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%83%BD</t>
+  </si>
+  <si>
+    <t>核能</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%99%A8</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E6%8A%95%E8%B5%84</t>
+  </si>
+  <si>
+    <t>风险投资</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%96%B0</t>
+  </si>
+  <si>
+    <t>创新</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%B8%82%E5%9C%BA</t>
+  </si>
+  <si>
+    <t>金融市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%B5%84%E6%BA%90</t>
+  </si>
+  <si>
+    <t>自然资源</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>公共教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>高等教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%A7%91%E6%8A%80</t>
+  </si>
+  <si>
+    <t>高科技</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%A9%AC%E9%80%8A%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>亚马逊公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>苹果公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Google</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF</t>
+  </si>
+  <si>
+    <t>微软</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Intel</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/IBM</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%9E%E4%BA%89%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>竞争力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%99%BC</t>
+  </si>
+  <si>
+    <t>研发</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%A7%BB%E6%B0%91</t>
+  </si>
+  <si>
+    <t>新移民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
+  </si>
+  <si>
+    <t>纽约市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>高速公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97</t>
+  </si>
+  <si>
+    <t>华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
+  </si>
+  <si>
+    <t>芝加哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%95%B6%E5%8B%9E</t>
+  </si>
+  <si>
+    <t>麦当劳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83</t>
+  </si>
+  <si>
+    <t>美式足球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
+  </si>
+  <si>
+    <t>金融</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E8%BF%90</t>
+  </si>
+  <si>
+    <t>航运</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88</t>
+  </si>
+  <si>
+    <t>出版</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E6%92%AD_(%E5%A4%A7%E4%BC%97%E5%AA%92%E4%BD%93)</t>
+  </si>
+  <si>
+    <t>广播 (大众媒体)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A</t>
+  </si>
+  <si>
+    <t>广告</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
+  </si>
+  <si>
+    <t>洛杉矶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%94%B1%E7%89%87</t>
+  </si>
+  <si>
+    <t>唱片</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86</t>
+  </si>
+  <si>
+    <t>电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A4%AA%E5%8D%80</t>
+  </si>
+  <si>
+    <t>亚太区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
+  </si>
+  <si>
+    <t>旧金山湾区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
+  </si>
+  <si>
+    <t>硅谷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%B7%A5%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>重工业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>底特律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>旅游业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%99%A9</t>
+  </si>
+  <si>
+    <t>保险</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>商业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91</t>
+  </si>
+  <si>
+    <t>黄金</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%88%BE</t>
+  </si>
+  <si>
+    <t>铀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>小麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B3%96</t>
+  </si>
+  <si>
+    <t>糖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%9F%E8%8D%89</t>
+  </si>
+  <si>
+    <t>烟草</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>已开发国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3</t>
+  </si>
+  <si>
+    <t>墨西哥湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A5</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%85%99%E8%8D%89</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%B1%86</t>
+  </si>
+  <si>
+    <t>大豆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1</t>
+  </si>
+  <si>
+    <t>咖啡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%95%89</t>
+  </si>
+  <si>
+    <t>香蕉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E7%BF%BC%E6%9C%BA</t>
+  </si>
+  <si>
+    <t>固定翼机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%92%A2</t>
+  </si>
+  <si>
+    <t>钢</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E9%9B%BB%E5%AD%90%E7%94%A2%E5%93%81</t>
+  </si>
+  <si>
+    <t>消费电子产品</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E5%A4%A7%E8%B2%BF%E6%98%93%E5%A4%A5%E4%BC%B4%E5%90%8D%E5%96%AE</t>
+  </si>
+  <si>
+    <t>美国最大贸易夥伴名单</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>罗纳德·里根</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>新自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>凯恩斯主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
+  </si>
+  <si>
+    <t>社会福利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>自由市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%84%91</t>
+  </si>
+  <si>
+    <t>电脑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E8%B2%B8%E5%8D%B1%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>次贷危机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2007%E5%B9%B4%EF%BC%8D2013%E5%B9%B4%E7%8E%AF%E7%90%83%E9%87%91%E8%9E%8D%E5%8D%B1%E6%9C%BA</t>
+  </si>
+  <si>
+    <t>2007年－2013年环球金融危机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/CNN</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/United_States_Census_Bureau</t>
+  </si>
+  <si>
+    <t>United States Census Bureau</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/World_Bank</t>
+  </si>
+  <si>
+    <t>World Bank</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%93%E6%BF%9F%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国经济史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%82%B5%E5%8B%99%E4%B8%8A%E9%99%90%E5%8D%B1%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>美国债务上限危机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%82%A8%E5%A4%87%E7%B3%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>联邦储备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%A6%8F%E6%96%B0%E6%94%BF</t>
+  </si>
+  <si>
+    <t>罗斯福新政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E7%8F%AD%E6%96%AF-%E5%A5%A5%E5%85%8B%E6%96%AF%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>萨班斯-奥克斯利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%A9%A9%E5%AE%9A%E7%B7%8A%E6%80%A5%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>经济稳定紧急法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E8%A3%9C%E8%B2%BC</t>
+  </si>
+  <si>
+    <t>农业补贴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>联合国会员国列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>阿根廷经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>巴拉圭经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>巴拿马经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>巴西经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>秘鲁经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>多米尼加共和国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>哥伦比亚经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>古巴经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>海地经济</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>纽约</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>世界贸易组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>经济合作与发展组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>亚洲太平洋经济合作组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
-  </si>
-  <si>
-    <t>國內生產總值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
-  </si>
-  <si>
-    <t>各国人均国内生产总值列表 (购买力平价)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>农业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>工业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E4%BA%A7%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>第三产业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
-  </si>
-  <si>
-    <t>通货膨胀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85%E7%89%A9%E5%83%B9%E6%8C%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>消費者物價指數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E7%AA%AE%E9%96%80%E6%AA%BB</t>
-  </si>
-  <si>
-    <t>貧窮門檻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B0%BC%E7%B3%BB%E6%95%B0</t>
-  </si>
-  <si>
-    <t>基尼系数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%94%B6%E5%85%A5%E5%9D%87%E8%A1%A1%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国收入均衡列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>林业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%94%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>渔业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E9%80%A0%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>制造业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E5%B7%A5%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>手工业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD%E7%8E%87</t>
-  </si>
-  <si>
-    <t>失業率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
-  </si>
-  <si>
-    <t>石油</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B1%9E</t>
-  </si>
-  <si>
-    <t>金属</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E5%99%A8</t>
-  </si>
-  <si>
-    <t>航天器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9</t>
-  </si>
-  <si>
-    <t>食物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E6%9D%90</t>
-  </si>
-  <si>
-    <t>木材</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%BF%E7%9F%B3</t>
-  </si>
-  <si>
-    <t>矿石</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%BB%8F%E5%95%86%E5%AE%B9%E6%98%93%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国经商容易度列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E8%B2%A1</t>
-  </si>
-  <si>
-    <t>資本財</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A5%B2%E6%96%99</t>
-  </si>
-  <si>
-    <t>饲料</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A5%AE%E6%96%99</t>
-  </si>
-  <si>
-    <t>饮料</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%8C%96</t>
-  </si>
-  <si>
-    <t>石化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9E%E6%9C%BA</t>
-  </si>
-  <si>
-    <t>飞机</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA</t>
-  </si>
-  <si>
-    <t>计算机</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%99%A9</t>
-  </si>
-  <si>
-    <t>社会保险</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E7%96%97%E4%BF%9D%E9%99%A9</t>
-  </si>
-  <si>
-    <t>医疗保险</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E5%BC%80%E5%8F%91%E6%8F%B4%E5%8A%A9</t>
-  </si>
-  <si>
-    <t>政府开发援助</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E5%87%86%E6%99%AE%E5%B0%94</t>
-  </si>
-  <si>
-    <t>标准普尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E8%BF%AA</t>
-  </si>
-  <si>
-    <t>穆迪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E8%AA%89%E5%9B%BD%E9%99%85</t>
-  </si>
-  <si>
-    <t>惠誉国际</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Infobox_economy</t>
-  </si>
-  <si>
-    <t>Template talk-Infobox economy</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>经济体系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
-  </si>
-  <si>
-    <t>国内生产总值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/GDP</t>
-  </si>
-  <si>
-    <t>GDP</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>世界經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>混合经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>微觀經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A7%84</t>
-  </si>
-  <si>
-    <t>行政法规</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E7%A8%8E%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>财税政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>货币政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%82%E8%B0%83%E6%8E%A7</t>
-  </si>
-  <si>
-    <t>宏观调控</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%8D%AB%E7%94%9F</t>
-  </si>
-  <si>
-    <t>公共卫生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AE%89%E5%85%A8%E4%BF%9D%E9%9A%9C</t>
-  </si>
-  <si>
-    <t>社会安全保障</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%AD%98%E6%AC%BE%E4%BF%9D%E9%99%A9%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>美国联邦存款保险公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%9C%E6%BB%AF%E6%80%A7%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
-  </si>
-  <si>
-    <t>停滯性通貨膨脹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2007%E5%B9%B4%EF%BC%8D2011%E5%B9%B4%E7%92%B0%E7%90%83%E9%87%91%E8%9E%8D%E5%8D%B1%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>2007年－2011年環球金融危機</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%A8%E5%87%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>淨出口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E5%AD%97</t>
-  </si>
-  <si>
-    <t>赤字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%80%BA</t>
-  </si>
-  <si>
-    <t>美国国债</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%B0%84</t>
-  </si>
-  <si>
-    <t>雷射</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%83%BD</t>
-  </si>
-  <si>
-    <t>核能</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%99%A8</t>
-  </si>
-  <si>
-    <t>武器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E6%8A%95%E8%B5%84</t>
-  </si>
-  <si>
-    <t>风险投资</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%96%B0</t>
-  </si>
-  <si>
-    <t>創新</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%B8%82%E5%9C%BA</t>
-  </si>
-  <si>
-    <t>金融市场</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%B5%84%E6%BA%90</t>
-  </si>
-  <si>
-    <t>自然资源</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>公共教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>高等教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%A7%91%E6%8A%80</t>
-  </si>
-  <si>
-    <t>高科技</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%A9%AC%E9%80%8A%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>亚马逊公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>蘋果公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Google</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF</t>
-  </si>
-  <si>
-    <t>微软</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Intel</t>
-  </si>
-  <si>
-    <t>Intel</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/IBM</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%9E%E4%BA%89%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>竞争力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%99%BC</t>
-  </si>
-  <si>
-    <t>研發</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%A7%BB%E6%B0%91</t>
-  </si>
-  <si>
-    <t>新移民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
-  </si>
-  <si>
-    <t>紐約市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>高速公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97</t>
-  </si>
-  <si>
-    <t>華爾街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
-  </si>
-  <si>
-    <t>芝加哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%95%B6%E5%8B%9E</t>
-  </si>
-  <si>
-    <t>麥當勞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2</t>
-  </si>
-  <si>
-    <t>好萊塢</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83</t>
-  </si>
-  <si>
-    <t>美式足球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
-  </si>
-  <si>
-    <t>金融</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E8%BF%90</t>
-  </si>
-  <si>
-    <t>航运</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88</t>
-  </si>
-  <si>
-    <t>出版</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E6%92%AD_(%E5%A4%A7%E4%BC%97%E5%AA%92%E4%BD%93)</t>
-  </si>
-  <si>
-    <t>广播 (大众媒体)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A</t>
-  </si>
-  <si>
-    <t>廣告</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6</t>
-  </si>
-  <si>
-    <t>洛杉矶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%B1%E7%89%87</t>
-  </si>
-  <si>
-    <t>唱片</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86</t>
-  </si>
-  <si>
-    <t>电视</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A4%AA%E5%8D%80</t>
-  </si>
-  <si>
-    <t>亞太區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
-  </si>
-  <si>
-    <t>舊金山灣區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
-  </si>
-  <si>
-    <t>硅谷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%B7%A5%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>重工業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>底特律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>旅游业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>宾夕法尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%99%A9</t>
-  </si>
-  <si>
-    <t>保险</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>商业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91</t>
-  </si>
-  <si>
-    <t>黄金</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%88%BE</t>
-  </si>
-  <si>
-    <t>鈾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3</t>
-  </si>
-  <si>
-    <t>玉米</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>小麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B3%96</t>
-  </si>
-  <si>
-    <t>糖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%9F%E8%8D%89</t>
-  </si>
-  <si>
-    <t>烟草</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>已開發國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3</t>
-  </si>
-  <si>
-    <t>墨西哥灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A5</t>
-  </si>
-  <si>
-    <t>小麥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%85%99%E8%8D%89</t>
-  </si>
-  <si>
-    <t>煙草</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%B1%86</t>
-  </si>
-  <si>
-    <t>大豆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1</t>
-  </si>
-  <si>
-    <t>咖啡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%95%89</t>
-  </si>
-  <si>
-    <t>香蕉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E7%BF%BC%E6%9C%BA</t>
-  </si>
-  <si>
-    <t>固定翼机</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%92%A2</t>
-  </si>
-  <si>
-    <t>钢</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E9%9B%BB%E5%AD%90%E7%94%A2%E5%93%81</t>
-  </si>
-  <si>
-    <t>消費電子產品</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8</t>
-  </si>
-  <si>
-    <t>旅游</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E5%A4%A7%E8%B2%BF%E6%98%93%E5%A4%A5%E4%BC%B4%E5%90%8D%E5%96%AE</t>
-  </si>
-  <si>
-    <t>美國最大貿易夥伴名單</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>罗纳德·里根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>新自由主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>凯恩斯主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
-  </si>
-  <si>
-    <t>社會福利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>自由市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%84%91</t>
-  </si>
-  <si>
-    <t>电脑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
-  </si>
-  <si>
-    <t>互联网</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E8%B2%B8%E5%8D%B1%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>次貸危機</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2007%E5%B9%B4%EF%BC%8D2013%E5%B9%B4%E7%8E%AF%E7%90%83%E9%87%91%E8%9E%8D%E5%8D%B1%E6%9C%BA</t>
-  </si>
-  <si>
-    <t>2007年－2013年环球金融危机</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/CNN</t>
-  </si>
-  <si>
-    <t>CNN</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/United_States_Census_Bureau</t>
-  </si>
-  <si>
-    <t>United States Census Bureau</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/World_Bank</t>
-  </si>
-  <si>
-    <t>World Bank</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%93%E6%BF%9F%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美國經濟史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
-  </si>
-  <si>
-    <t>美國國債</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%82%B5%E5%8B%99%E4%B8%8A%E9%99%90%E5%8D%B1%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>美國債務上限危機</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%82%A8%E5%A4%87%E7%B3%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>联邦储备系统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%A6%8F%E6%96%B0%E6%94%BF</t>
-  </si>
-  <si>
-    <t>罗斯福新政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E7%8F%AD%E6%96%AF-%E5%A5%A5%E5%85%8B%E6%96%AF%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>萨班斯-奥克斯利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%A9%A9%E5%AE%9A%E7%B7%8A%E6%80%A5%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>經濟穩定緊急法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E8%A3%9C%E8%B2%BC</t>
-  </si>
-  <si>
-    <t>農業補貼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>聯合國會員國列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>阿根廷經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>巴拉圭经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>巴拿马经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>巴西經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>秘鲁经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>多米尼加共和国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>哥伦比亚经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>古巴经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>海地经济</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>烏拉圭經濟</t>
+    <t>乌拉圭经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E7%BB%8F%E6%B5%8E</t>
@@ -1055,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
@@ -1079,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國醫療系統</t>
+    <t>美国医疗系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
@@ -1097,13 +1085,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>美國人權</t>
+    <t>美国人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國社會問題</t>
+    <t>美国社会问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
@@ -1115,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
@@ -1151,22 +1139,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>美国交通</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3045,7 +3024,7 @@
         <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3071,10 +3050,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>9</v>
@@ -3100,10 +3079,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3129,10 +3108,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3158,10 +3137,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3187,10 +3166,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>5</v>
@@ -3216,10 +3195,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3245,10 +3224,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3274,10 +3253,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3303,10 +3282,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3332,10 +3311,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3361,10 +3340,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3390,10 +3369,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>6</v>
@@ -3419,10 +3398,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3448,10 +3427,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3477,10 +3456,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3506,10 +3485,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3535,10 +3514,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3564,10 +3543,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3593,10 +3572,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3622,10 +3601,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3651,10 +3630,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3680,10 +3659,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3709,10 +3688,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3738,10 +3717,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3767,10 +3746,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3796,10 +3775,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3825,10 +3804,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3854,10 +3833,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3883,10 +3862,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3912,10 +3891,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3941,10 +3920,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3970,10 +3949,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3999,10 +3978,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4028,10 +4007,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4057,10 +4036,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4086,10 +4065,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4115,10 +4094,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4144,10 +4123,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4173,10 +4152,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4202,10 +4181,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4231,10 +4210,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4260,10 +4239,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4289,10 +4268,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4318,10 +4297,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4347,10 +4326,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4376,10 +4355,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4405,10 +4384,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4463,10 +4442,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>12</v>
@@ -4492,10 +4471,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4521,10 +4500,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4550,10 +4529,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4579,10 +4558,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4608,10 +4587,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4637,10 +4616,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4666,10 +4645,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4695,10 +4674,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4724,10 +4703,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4753,10 +4732,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4782,10 +4761,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4811,10 +4790,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4840,10 +4819,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4869,10 +4848,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4898,10 +4877,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4927,10 +4906,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4956,10 +4935,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4985,10 +4964,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>196</v>
+      </c>
+      <c r="F120" t="s">
         <v>197</v>
-      </c>
-      <c r="F120" t="s">
-        <v>198</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5014,10 +4993,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>198</v>
+      </c>
+      <c r="F121" t="s">
         <v>199</v>
-      </c>
-      <c r="F121" t="s">
-        <v>200</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5043,10 +5022,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5072,10 +5051,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5101,10 +5080,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5130,10 +5109,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
-      </c>
-      <c r="F125" t="s">
-        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5159,10 +5138,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -5188,10 +5167,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5217,10 +5196,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5246,10 +5225,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
-      </c>
-      <c r="F129" t="s">
-        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5275,10 +5254,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
-      </c>
-      <c r="F130" t="s">
-        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5304,10 +5283,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5333,10 +5312,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5362,10 +5341,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5391,10 +5370,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5420,10 +5399,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5449,10 +5428,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5478,10 +5457,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5507,10 +5486,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -5536,10 +5515,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>148</v>
+      </c>
+      <c r="F139" t="s">
         <v>149</v>
-      </c>
-      <c r="F139" t="s">
-        <v>150</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5565,10 +5544,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5594,10 +5573,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5623,10 +5602,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5681,10 +5660,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5710,10 +5689,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5739,10 +5718,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5768,10 +5747,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5797,10 +5776,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5826,10 +5805,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5855,10 +5834,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5884,10 +5863,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -5913,10 +5892,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5942,10 +5921,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -5971,10 +5950,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6000,10 +5979,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6029,10 +6008,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>98</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6058,10 +6037,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6087,10 +6066,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F158" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6116,10 +6095,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F159" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6145,10 +6124,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>143</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6174,10 +6153,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6203,10 +6182,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6232,10 +6211,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6261,10 +6240,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F164" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6290,10 +6269,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6319,10 +6298,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F166" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6348,10 +6327,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6377,10 +6356,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6406,10 +6385,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6435,10 +6414,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6464,10 +6443,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6493,10 +6472,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6522,10 +6501,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6551,10 +6530,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6580,10 +6559,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6609,10 +6588,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F176" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6638,10 +6617,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F177" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6667,10 +6646,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F178" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6696,13 +6675,13 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -6725,10 +6704,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6754,10 +6733,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F181" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6783,13 +6762,13 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -6812,13 +6791,13 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -6841,10 +6820,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6870,10 +6849,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6899,10 +6878,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6928,10 +6907,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6957,10 +6936,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6986,10 +6965,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7015,10 +6994,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7044,10 +7023,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7073,10 +7052,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7102,10 +7081,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F193" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7131,10 +7110,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F194" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7160,10 +7139,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F195" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7189,10 +7168,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7218,10 +7197,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7247,10 +7226,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7276,10 +7255,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7305,47 +7284,18 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G200" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
       </c>
       <c r="I200" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="s">
-        <v>0</v>
-      </c>
-      <c r="C201" t="s">
-        <v>1</v>
-      </c>
-      <c r="D201" t="n">
-        <v>200</v>
-      </c>
-      <c r="E201" t="s">
-        <v>381</v>
-      </c>
-      <c r="F201" t="s">
-        <v>383</v>
-      </c>
-      <c r="G201" t="n">
-        <v>1</v>
-      </c>
-      <c r="H201" t="s">
-        <v>4</v>
-      </c>
-      <c r="I201" t="n">
         <v>3</v>
       </c>
     </row>
